--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>27.03.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45370</v>
+        <v>45379</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45370</v>
+        <v>45379</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,16 +919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,16 +979,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,16 +1159,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>11</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
       <c r="D25" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45371</v>
+        <v>45380</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45371</v>
+        <v>45380</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,16 +1699,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,16 +1879,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45372</v>
+        <v>45381</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,16 +2239,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45372</v>
+        <v>45381</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,16 +2359,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,16 +2599,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,16 +2659,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45373</v>
+        <v>45382</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,16 +2959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45373</v>
+        <v>45382</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,16 +3349,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>17</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
         <v>15</v>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>8</v>
-      </c>
       <c r="D101" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45374</v>
+        <v>45383</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45374</v>
+        <v>45383</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45375</v>
+        <v>45383</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45375</v>
+        <v>45384</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45375</v>
+        <v>45384</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>24.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
+        <v>8</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>3</v>
-      </c>
       <c r="D140" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
+        <v>9</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
         <v>7</v>
       </c>
-      <c r="B141" t="n">
-        <v>0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4</v>
-      </c>
       <c r="D141" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
+        <v>10</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
         <v>8</v>
       </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4</v>
-      </c>
       <c r="D142" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4</v>
-      </c>
       <c r="D143" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>12</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
         <v>10</v>
       </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4</v>
-      </c>
       <c r="D144" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>13</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
         <v>11</v>
       </c>
-      <c r="B145" t="n">
-        <v>0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4</v>
-      </c>
       <c r="D145" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45376</v>
+        <v>45384</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45376</v>
+        <v>45385</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45376</v>
+        <v>45385</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>25.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,16 +5209,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
+        <v>13</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
         <v>11</v>
       </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6</v>
-      </c>
       <c r="D169" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45377</v>
+        <v>45385</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>26.03.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,13 +469,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>45378</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>45378</v>
@@ -529,13 +529,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>45378</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>45378</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>28.03.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,13 +769,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>45379</v>
@@ -799,13 +799,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>45379</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>45379</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>45379</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>45379</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>45379</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>45379</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>45379</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>45379</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>45379</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>45379</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>45379</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>45379</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>45379</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>45379</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>45379</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>45379</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>45379</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>29.03.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,13 +1489,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>45380</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>45380</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>45380</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>45380</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>45380</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>45380</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>45380</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>45380</v>
@@ -1789,13 +1789,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>45380</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>45380</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>45380</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>45380</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>45380</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>45380</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>45380</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>30.03.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,13 +2209,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>45381</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>45381</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>45381</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>45381</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>45381</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>45381</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>45381</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>45381</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>45381</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>45381</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>45381</v>
@@ -2569,13 +2569,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>45381</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>45381</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>45381</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>45381</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>45381</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>45381</v>
@@ -2749,13 +2749,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>45381</v>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>45381</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,7 +2899,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>31.03.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,7 +2929,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>45382</v>
@@ -2989,13 +2989,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>45382</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>45382</v>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>45382</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>45382</v>
@@ -3109,13 +3109,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>45382</v>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>45382</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>45382</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>45382</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>45382</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>45382</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>45382</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>45382</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
         <v>15</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>20</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>45382</v>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>45382</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>45382</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>45382</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>45382</v>
@@ -3529,13 +3529,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>45382</v>
@@ -3559,13 +3559,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>45382</v>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>01.04.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,13 +3649,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>45383</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>45383</v>
@@ -3709,13 +3709,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>45383</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>45383</v>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>45383</v>
@@ -3859,13 +3859,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>45383</v>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>45383</v>
@@ -3919,13 +3919,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>45383</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>45383</v>
@@ -4039,13 +4039,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>45383</v>
@@ -4069,13 +4069,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>45383</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>45383</v>
@@ -4129,13 +4129,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>45383</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>45383</v>
@@ -4189,13 +4189,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>45383</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -4249,13 +4249,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>45383</v>
@@ -4279,13 +4279,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>45383</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,7 +4339,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>02.04.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,13 +4369,13 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>45384</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>45384</v>
@@ -4459,13 +4459,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>45384</v>
@@ -4489,13 +4489,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>45384</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>45384</v>
@@ -4549,13 +4549,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>45384</v>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>45384</v>
@@ -4609,13 +4609,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>45384</v>
@@ -4639,13 +4639,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>45384</v>
@@ -4669,13 +4669,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
+        <v>12</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
         <v>10</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>8</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>45384</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>45384</v>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>45384</v>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>45384</v>
@@ -4789,13 +4789,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>45384</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>45384</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>45384</v>
@@ -4879,13 +4879,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>45384</v>
@@ -4909,13 +4909,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>45384</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -4999,13 +4999,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>45384</v>
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>03.04.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,13 +5089,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>45385</v>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>45385</v>
@@ -5149,13 +5149,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>45385</v>
@@ -5179,13 +5179,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>45385</v>
@@ -5209,13 +5209,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>45385</v>
@@ -5239,13 +5239,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>45385</v>
@@ -5269,13 +5269,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>45385</v>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>45385</v>
@@ -5329,13 +5329,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>45385</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>45385</v>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>45385</v>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
+        <v>13</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
         <v>11</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>10</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>45385</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -5509,13 +5509,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>45385</v>

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>16</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45378</v>
+        <v>45412</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45379</v>
+        <v>45412</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>30.04.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,7 +739,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>5</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
       <c r="D15" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,7 +919,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,7 +979,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,16 +1159,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>15</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9</v>
-      </c>
       <c r="D25" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45379</v>
+        <v>45413</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45380</v>
+        <v>45413</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>01.05.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,7 +1699,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,16 +1879,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>14</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>15</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12</v>
-      </c>
       <c r="D49" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45381</v>
+        <v>45414</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>02.05.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,16 +2239,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,16 +2599,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>14</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>15</v>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>19</v>
-      </c>
       <c r="D73" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,16 +2659,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45381</v>
+        <v>45415</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45382</v>
+        <v>45415</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>03.05.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,7 +2959,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,7 +2989,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
         <v>14</v>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>21</v>
-      </c>
       <c r="D96" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,16 +3349,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45382</v>
+        <v>45416</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>31.03.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45383</v>
+        <v>45416</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>04.05.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
+        <v>15</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
         <v>16</v>
       </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>20</v>
-      </c>
       <c r="D122" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45383</v>
+        <v>45417</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>01.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45384</v>
+        <v>45417</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>05.05.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
+        <v>15</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
         <v>16</v>
       </c>
-      <c r="B146" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>8</v>
-      </c>
       <c r="D146" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45384</v>
+        <v>45418</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>02.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45385</v>
+        <v>45418</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>06.05.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,16 +5209,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45385</v>
+        <v>45419</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03.04.2024F25</t>
+          <t>07.05.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30.04.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>24.05.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,16 +919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,16 +979,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>9</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>15</v>
-      </c>
       <c r="D20" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>16</v>
-      </c>
       <c r="D21" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,7 +1159,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>15</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>14</v>
-      </c>
       <c r="D26" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
         <v>16</v>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>13</v>
-      </c>
       <c r="D27" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
         <v>17</v>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11</v>
-      </c>
       <c r="D28" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>01.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>25.05.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>6</v>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10</v>
-      </c>
       <c r="D41" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,16 +1699,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,16 +1879,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>19</v>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>9</v>
-      </c>
       <c r="D54" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,7 +2239,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>26.05.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,16 +2359,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
         <v>6</v>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11</v>
-      </c>
       <c r="D65" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,16 +2599,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,7 +2659,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,7 +2899,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,16 +2959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>27.05.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
         <v>6</v>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>9</v>
-      </c>
       <c r="D89" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,7 +3349,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>28.05.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
         <v>7</v>
       </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11</v>
-      </c>
       <c r="D114" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
+        <v>8</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
         <v>14</v>
       </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>16</v>
-      </c>
       <c r="D121" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
+        <v>9</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
         <v>15</v>
       </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>16</v>
-      </c>
       <c r="D122" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
         <v>16</v>
       </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>15</v>
-      </c>
       <c r="D123" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,7 +4459,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>29.05.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
         <v>8</v>
       </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15</v>
-      </c>
       <c r="D139" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
         <v>11</v>
       </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>18</v>
-      </c>
       <c r="D142" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
+        <v>12</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
         <v>18</v>
       </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>13</v>
-      </c>
       <c r="D149" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,7 +5209,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>11</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>30.05.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
         <v>12</v>
       </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>19</v>
-      </c>
       <c r="D167" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
+        <v>7</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
         <v>13</v>
       </c>
-      <c r="B168" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" t="n">
-        <v>19</v>
-      </c>
       <c r="D168" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
+        <v>8</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
         <v>14</v>
       </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>19</v>
-      </c>
       <c r="D169" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
+        <v>9</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>19</v>
-      </c>
       <c r="D170" s="1" t="n">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07.05.2024F25</t>
+          <t>31.05.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,16 +919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>18.06.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,16 +979,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,16 +1159,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>25.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>19.06.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,16 +1699,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,16 +1879,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,16 +2239,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,16 +2359,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>20.06.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,16 +2599,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,16 +2659,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,16 +2959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>19</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
         <v>21</v>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>6</v>
-      </c>
       <c r="D86" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>21.06.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,16 +3349,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>28.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>22.06.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>19</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
         <v>21</v>
       </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>10</v>
-      </c>
       <c r="D134" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>23.06.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
         <v>2</v>
       </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
+        <v>19</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="C158" t="n">
         <v>21</v>
       </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11</v>
-      </c>
       <c r="D158" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,16 +5209,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>24.06.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31.05.2024F25</t>
+          <t>25.06.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45461</v>
+        <v>45509</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>05.08.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
-      </c>
       <c r="D9" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23</v>
-      </c>
       <c r="D10" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,16 +919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45461</v>
+        <v>45510</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,16 +979,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,16 +1159,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
         <v>6</v>
       </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
         <v>13</v>
       </c>
-      <c r="B32" t="n">
-        <v>7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>28</v>
-      </c>
       <c r="D32" s="1" t="n">
-        <v>45462</v>
+        <v>45510</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>06.08.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45462</v>
+        <v>45511</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,16 +1699,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
         <v>17</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,16 +1879,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45463</v>
+        <v>45511</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>07.08.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,16 +2239,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,16 +2359,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
         <v>16</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45463</v>
+        <v>45512</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,16 +2599,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,16 +2659,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
         <v>26</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45464</v>
+        <v>45512</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>08.08.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,16 +2959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45464</v>
+        <v>45513</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>21.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,16 +3349,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45465</v>
+        <v>45513</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45465</v>
+        <v>45514</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C119" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C123" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45466</v>
+        <v>45514</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C137" t="n">
         <v>18</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45466</v>
+        <v>45515</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C143" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C152" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45467</v>
+        <v>45515</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8</v>
+      </c>
+      <c r="C156" t="n">
         <v>17</v>
       </c>
-      <c r="B156" t="n">
-        <v>2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26</v>
-      </c>
       <c r="D156" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,16 +5209,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
         <v>18</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45467</v>
+        <v>45516</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C164" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C170" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45468</v>
+        <v>45516</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>25.06.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">

--- a/Transavia/Consumption/output_formatted.xlsx
+++ b/Transavia/Consumption/output_formatted.xlsx
@@ -469,16 +469,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -499,16 +499,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -529,16 +529,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -559,16 +559,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -589,16 +589,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -619,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -649,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45509</v>
+        <v>45513</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -679,16 +679,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -739,16 +739,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -769,16 +769,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>09.08.2024F25</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -799,16 +799,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -829,16 +829,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -859,16 +859,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -889,16 +889,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -919,16 +919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -949,16 +949,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -979,16 +979,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1009,16 +1009,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1099,16 +1099,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1129,16 +1129,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1159,16 +1159,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1189,16 +1189,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1219,16 +1219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1279,16 +1279,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1309,16 +1309,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1339,16 +1339,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1369,16 +1369,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>45510</v>
+        <v>45514</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1399,16 +1399,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="n">
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1429,16 +1429,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1459,16 +1459,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1489,16 +1489,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
         <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>10.08.2024F25</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1519,16 +1519,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1549,16 +1549,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1639,16 +1639,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="n">
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
         <v>8</v>
@@ -1678,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1699,16 +1699,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="n">
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1729,16 +1729,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -1759,16 +1759,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="n">
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="n">
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -1819,16 +1819,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="n">
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -1849,16 +1849,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="n">
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -1879,7 +1879,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="n">
         <v>8</v>
@@ -1888,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -1909,16 +1909,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" t="n">
         <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -1939,16 +1939,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="n">
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1969,16 +1969,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="n">
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1999,16 +1999,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2029,16 +2029,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" t="n">
         <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2059,16 +2059,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="n">
         <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2089,16 +2089,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" t="n">
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>45511</v>
+        <v>45515</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2119,16 +2119,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" t="n">
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2149,16 +2149,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" t="n">
         <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2179,16 +2179,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="n">
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2209,16 +2209,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B60" t="n">
         <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>11.08.2024F25</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2239,16 +2239,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
         <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2269,16 +2269,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
         <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2329,16 +2329,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" t="n">
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2359,16 +2359,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="n">
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2389,16 +2389,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="n">
         <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2419,16 +2419,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="n">
         <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2449,16 +2449,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
         <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2479,16 +2479,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
         <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2539,16 +2539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
         <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2569,16 +2569,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -2599,7 +2599,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="n">
         <v>8</v>
@@ -2608,7 +2608,7 @@
         <v>28</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2629,16 +2629,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" t="n">
         <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -2659,16 +2659,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -2689,16 +2689,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" t="n">
         <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77" t="n">
         <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -2749,16 +2749,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" t="n">
         <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -2779,16 +2779,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" t="n">
         <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" t="n">
         <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>45512</v>
+        <v>45516</v>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -2839,16 +2839,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" t="n">
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -2869,16 +2869,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>21</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
         <v>22</v>
       </c>
-      <c r="B82" t="n">
-        <v>8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>17</v>
-      </c>
       <c r="D82" s="1" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" t="n">
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>12.08.2024F25</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -2959,16 +2959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3019,16 +3019,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3049,16 +3049,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" t="n">
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="n">
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3109,16 +3109,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" t="n">
         <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3139,16 +3139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="n">
         <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3169,16 +3169,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="n">
         <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3199,16 +3199,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" t="n">
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3229,16 +3229,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="n">
         <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3259,16 +3259,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95" t="n">
         <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3289,16 +3289,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="n">
         <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3319,16 +3319,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="n">
         <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3349,7 +3349,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98" t="n">
         <v>8</v>
@@ -3358,7 +3358,7 @@
         <v>29</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3379,16 +3379,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99" t="n">
         <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3409,16 +3409,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -3439,16 +3439,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -3469,16 +3469,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102" t="n">
         <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -3499,16 +3499,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103" t="n">
         <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
         <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>45513</v>
+        <v>45517</v>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -3559,16 +3559,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B105" t="n">
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -3589,16 +3589,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>21</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="n">
         <v>22</v>
       </c>
-      <c r="B106" t="n">
-        <v>8</v>
-      </c>
-      <c r="C106" t="n">
-        <v>18</v>
-      </c>
       <c r="D106" s="1" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -3619,16 +3619,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" t="n">
         <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -3649,16 +3649,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B108" t="n">
         <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>13.08.2024F25</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -3679,16 +3679,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -3709,16 +3709,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -3739,16 +3739,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -3769,16 +3769,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
         <v>16</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -3829,16 +3829,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -3859,16 +3859,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" t="n">
         <v>7</v>
       </c>
-      <c r="B115" t="n">
-        <v>8</v>
-      </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -3889,16 +3889,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B119" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="n">
         <v>26</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B122" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>45514</v>
+        <v>45518</v>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
+        <v>21</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7</v>
+      </c>
+      <c r="C130" t="n">
         <v>22</v>
       </c>
-      <c r="B130" t="n">
-        <v>8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>18</v>
-      </c>
       <c r="D130" s="1" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B131" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>14.08.2024F25</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
         <v>16</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="n">
         <v>5</v>
       </c>
-      <c r="B137" t="n">
-        <v>8</v>
-      </c>
       <c r="C137" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -4549,16 +4549,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -4579,16 +4579,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -4609,16 +4609,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -4639,16 +4639,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -4669,16 +4669,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -4699,16 +4699,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B143" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -4729,16 +4729,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -4759,16 +4759,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B145" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -4789,16 +4789,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -4819,16 +4819,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -4849,16 +4849,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -4879,16 +4879,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -4909,16 +4909,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B150" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -4939,16 +4939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B151" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -4969,16 +4969,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>45515</v>
+        <v>45519</v>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>11.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -4999,16 +4999,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5029,16 +5029,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B154" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -5059,16 +5059,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B155" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -5089,16 +5089,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>15.08.2024F25</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -5119,16 +5119,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -5149,16 +5149,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" t="n">
         <v>3</v>
       </c>
-      <c r="B159" t="n">
-        <v>8</v>
-      </c>
       <c r="C159" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -5209,16 +5209,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -5239,16 +5239,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -5269,16 +5269,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -5299,16 +5299,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -5359,16 +5359,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B165" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -5389,16 +5389,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -5449,16 +5449,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B168" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -5479,16 +5479,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B169" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E169" s="2" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -5509,16 +5509,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B170" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
         <v>31</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>45516</v>
+        <v>45520</v>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12.08.2024F25</t>
+          <t>16.08.2024F25</t>
         </is>
       </c>
       <c r="H170" t="n">
